--- a/data/Table3_6.xlsx
+++ b/data/Table3_6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzs88\AppData\Local\Box\Box Edit\Documents\ARuQEzThn06ooPrMCsA0DA==\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzs88\Box\NREL MFI SEP Update Project\MECS_r_data_wrangling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BA01DE-B8B8-4900-B890-6FAD273F52AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DE7A11-3C25-472B-8953-7EC92AB7E5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3984" yWindow="-17388" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 3.6" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="73">
   <si>
     <t xml:space="preserve">                        Level: National and Regional Data; </t>
   </si>
@@ -250,16 +250,10 @@
     <t xml:space="preserve">Released: February 2021 </t>
   </si>
   <si>
-    <t>Current D Count:</t>
-  </si>
-  <si>
-    <t>Current Q Count:</t>
-  </si>
-  <si>
-    <t>Current * Count:</t>
-  </si>
-  <si>
-    <t>Current -- Count:</t>
+    <t>Calculated from other Cells or MECS 2018 footprints</t>
+  </si>
+  <si>
+    <t>Copied from MECS 2014</t>
   </si>
 </sst>
 </file>
@@ -331,12 +325,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -470,7 +476,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyAlignment="1">
@@ -586,6 +592,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -604,6 +616,8 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="8" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="8" applyFill="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Body: normal cell" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -623,7 +637,57 @@
     <cellStyle name="Section Break: parent row" xfId="4" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="Table title" xfId="12" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left/>
@@ -651,8 +715,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -679,9 +743,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
+          <xdr:colOff>716280</xdr:colOff>
           <xdr:row>132</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>68580</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1034,7 +1098,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1087,14 +1151,14 @@
     </row>
     <row r="8" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
@@ -1255,18 +1319,16 @@
       <c r="F19" s="37">
         <v>5</v>
       </c>
-      <c r="G19" s="37" t="s">
-        <v>42</v>
+      <c r="G19" s="48">
+        <f>D19-SUM(E19:F19,H19)</f>
+        <v>1</v>
       </c>
       <c r="H19" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="55"/>
+      <c r="K19" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="K19" s="1">
-        <f>COUNTIF(C19:H106, "=D")</f>
-        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1294,12 +1356,9 @@
       <c r="H20" s="37">
         <v>0</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="56"/>
+      <c r="K20" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="K20" s="1">
-        <f>COUNTIF(C19:H106, "=Q")</f>
-        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1312,14 +1371,16 @@
       <c r="C21" s="37">
         <v>0</v>
       </c>
-      <c r="D21" s="37" t="s">
-        <v>42</v>
+      <c r="D21" s="48">
+        <f>SUM(E21:H21)</f>
+        <v>1</v>
       </c>
       <c r="E21" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="37" t="s">
-        <v>42</v>
+      <c r="F21" s="47">
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="G21" s="37">
         <v>1</v>
@@ -1327,13 +1388,7 @@
       <c r="H21" s="37">
         <v>0</v>
       </c>
-      <c r="J21" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K21" s="1">
-        <f>COUNTIF(C19:H106, "=*")</f>
-        <v>87</v>
-      </c>
+      <c r="J21" s="12"/>
     </row>
     <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="38" t="s">
@@ -1360,13 +1415,7 @@
       <c r="H22" s="37">
         <v>1</v>
       </c>
-      <c r="J22" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="K22" s="1">
-        <f>COUNTIF(C19:H106, "=--")</f>
-        <v>0</v>
-      </c>
+      <c r="J22" s="12"/>
     </row>
     <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="38" t="s">
@@ -1505,8 +1554,9 @@
       <c r="B28" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="37" t="s">
-        <v>62</v>
+      <c r="C28" s="48">
+        <f>165</f>
+        <v>165</v>
       </c>
       <c r="D28" s="37">
         <v>48</v>
@@ -1621,8 +1671,9 @@
       <c r="F32" s="37">
         <v>0</v>
       </c>
-      <c r="G32" s="37" t="s">
-        <v>42</v>
+      <c r="G32" s="48">
+        <f>D32-SUM(E32:F32,H32)</f>
+        <v>5</v>
       </c>
       <c r="H32" s="37" t="s">
         <v>33</v>
@@ -3429,200 +3480,200 @@
       </c>
     </row>
     <row r="107" spans="1:14" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="49"/>
-      <c r="B107" s="49"/>
-      <c r="C107" s="49"/>
-      <c r="D107" s="49"/>
-      <c r="E107" s="49"/>
-      <c r="F107" s="49"/>
-      <c r="G107" s="49"/>
-      <c r="H107" s="49"/>
+      <c r="A107" s="51"/>
+      <c r="B107" s="51"/>
+      <c r="C107" s="51"/>
+      <c r="D107" s="51"/>
+      <c r="E107" s="51"/>
+      <c r="F107" s="51"/>
+      <c r="G107" s="51"/>
+      <c r="H107" s="51"/>
     </row>
     <row r="108" spans="1:14" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="47"/>
-      <c r="B108" s="47"/>
-      <c r="C108" s="47"/>
-      <c r="D108" s="47"/>
-      <c r="E108" s="47"/>
-      <c r="F108" s="47"/>
-      <c r="G108" s="47"/>
-      <c r="H108" s="47"/>
+      <c r="A108" s="49"/>
+      <c r="B108" s="49"/>
+      <c r="C108" s="49"/>
+      <c r="D108" s="49"/>
+      <c r="E108" s="49"/>
+      <c r="F108" s="49"/>
+      <c r="G108" s="49"/>
+      <c r="H108" s="49"/>
       <c r="K108" s="24"/>
       <c r="L108" s="24"/>
       <c r="M108" s="24"/>
       <c r="N108" s="24"/>
     </row>
     <row r="109" spans="1:14" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="47"/>
-      <c r="B109" s="47"/>
-      <c r="C109" s="47"/>
-      <c r="D109" s="47"/>
-      <c r="E109" s="47"/>
-      <c r="F109" s="47"/>
-      <c r="G109" s="47"/>
-      <c r="H109" s="47"/>
+      <c r="A109" s="49"/>
+      <c r="B109" s="49"/>
+      <c r="C109" s="49"/>
+      <c r="D109" s="49"/>
+      <c r="E109" s="49"/>
+      <c r="F109" s="49"/>
+      <c r="G109" s="49"/>
+      <c r="H109" s="49"/>
       <c r="K109" s="24"/>
       <c r="L109" s="24"/>
       <c r="M109" s="24"/>
       <c r="N109" s="24"/>
     </row>
     <row r="110" spans="1:14" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="47"/>
-      <c r="B110" s="47"/>
-      <c r="C110" s="47"/>
-      <c r="D110" s="47"/>
-      <c r="E110" s="47"/>
-      <c r="F110" s="47"/>
-      <c r="G110" s="47"/>
-      <c r="H110" s="47"/>
+      <c r="A110" s="49"/>
+      <c r="B110" s="49"/>
+      <c r="C110" s="49"/>
+      <c r="D110" s="49"/>
+      <c r="E110" s="49"/>
+      <c r="F110" s="49"/>
+      <c r="G110" s="49"/>
+      <c r="H110" s="49"/>
       <c r="K110" s="24"/>
       <c r="L110" s="24"/>
       <c r="M110" s="24"/>
       <c r="N110" s="24"/>
     </row>
     <row r="111" spans="1:14" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="47"/>
-      <c r="B111" s="47"/>
-      <c r="C111" s="47"/>
-      <c r="D111" s="47"/>
-      <c r="E111" s="47"/>
-      <c r="F111" s="47"/>
-      <c r="G111" s="47"/>
-      <c r="H111" s="47"/>
+      <c r="A111" s="49"/>
+      <c r="B111" s="49"/>
+      <c r="C111" s="49"/>
+      <c r="D111" s="49"/>
+      <c r="E111" s="49"/>
+      <c r="F111" s="49"/>
+      <c r="G111" s="49"/>
+      <c r="H111" s="49"/>
       <c r="K111" s="24"/>
       <c r="L111" s="24"/>
       <c r="M111" s="24"/>
       <c r="N111" s="24"/>
     </row>
     <row r="112" spans="1:14" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="47"/>
-      <c r="B112" s="47"/>
-      <c r="C112" s="47"/>
-      <c r="D112" s="47"/>
-      <c r="E112" s="47"/>
-      <c r="F112" s="47"/>
-      <c r="G112" s="47"/>
-      <c r="H112" s="47"/>
+      <c r="A112" s="49"/>
+      <c r="B112" s="49"/>
+      <c r="C112" s="49"/>
+      <c r="D112" s="49"/>
+      <c r="E112" s="49"/>
+      <c r="F112" s="49"/>
+      <c r="G112" s="49"/>
+      <c r="H112" s="49"/>
       <c r="K112" s="24"/>
       <c r="L112" s="24"/>
       <c r="M112" s="24"/>
       <c r="N112" s="24"/>
     </row>
     <row r="113" spans="1:14" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="47"/>
-      <c r="B113" s="47"/>
-      <c r="C113" s="47"/>
-      <c r="D113" s="47"/>
-      <c r="E113" s="47"/>
-      <c r="F113" s="47"/>
-      <c r="G113" s="47"/>
-      <c r="H113" s="47"/>
+      <c r="A113" s="49"/>
+      <c r="B113" s="49"/>
+      <c r="C113" s="49"/>
+      <c r="D113" s="49"/>
+      <c r="E113" s="49"/>
+      <c r="F113" s="49"/>
+      <c r="G113" s="49"/>
+      <c r="H113" s="49"/>
       <c r="K113" s="24"/>
       <c r="L113" s="24"/>
       <c r="M113" s="24"/>
       <c r="N113" s="24"/>
     </row>
     <row r="114" spans="1:14" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="47"/>
-      <c r="B114" s="47"/>
-      <c r="C114" s="47"/>
-      <c r="D114" s="47"/>
-      <c r="E114" s="47"/>
-      <c r="F114" s="47"/>
-      <c r="G114" s="47"/>
-      <c r="H114" s="47"/>
+      <c r="A114" s="49"/>
+      <c r="B114" s="49"/>
+      <c r="C114" s="49"/>
+      <c r="D114" s="49"/>
+      <c r="E114" s="49"/>
+      <c r="F114" s="49"/>
+      <c r="G114" s="49"/>
+      <c r="H114" s="49"/>
       <c r="K114" s="24"/>
       <c r="L114" s="24"/>
       <c r="M114" s="24"/>
       <c r="N114" s="24"/>
     </row>
     <row r="115" spans="1:14" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="47"/>
-      <c r="B115" s="47"/>
-      <c r="C115" s="47"/>
-      <c r="D115" s="47"/>
-      <c r="E115" s="47"/>
-      <c r="F115" s="47"/>
-      <c r="G115" s="47"/>
-      <c r="H115" s="47"/>
+      <c r="A115" s="49"/>
+      <c r="B115" s="49"/>
+      <c r="C115" s="49"/>
+      <c r="D115" s="49"/>
+      <c r="E115" s="49"/>
+      <c r="F115" s="49"/>
+      <c r="G115" s="49"/>
+      <c r="H115" s="49"/>
       <c r="K115" s="24"/>
       <c r="L115" s="24"/>
       <c r="M115" s="24"/>
       <c r="N115" s="24"/>
     </row>
     <row r="116" spans="1:14" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="47"/>
-      <c r="B116" s="47"/>
-      <c r="C116" s="47"/>
-      <c r="D116" s="47"/>
-      <c r="E116" s="47"/>
-      <c r="F116" s="47"/>
-      <c r="G116" s="47"/>
-      <c r="H116" s="47"/>
+      <c r="A116" s="49"/>
+      <c r="B116" s="49"/>
+      <c r="C116" s="49"/>
+      <c r="D116" s="49"/>
+      <c r="E116" s="49"/>
+      <c r="F116" s="49"/>
+      <c r="G116" s="49"/>
+      <c r="H116" s="49"/>
       <c r="K116" s="24"/>
       <c r="L116" s="24"/>
       <c r="M116" s="24"/>
       <c r="N116" s="24"/>
     </row>
     <row r="117" spans="1:14" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="50"/>
-      <c r="B117" s="50"/>
-      <c r="C117" s="50"/>
-      <c r="D117" s="50"/>
-      <c r="E117" s="50"/>
-      <c r="F117" s="50"/>
-      <c r="G117" s="50"/>
-      <c r="H117" s="50"/>
+      <c r="A117" s="52"/>
+      <c r="B117" s="52"/>
+      <c r="C117" s="52"/>
+      <c r="D117" s="52"/>
+      <c r="E117" s="52"/>
+      <c r="F117" s="52"/>
+      <c r="G117" s="52"/>
+      <c r="H117" s="52"/>
     </row>
     <row r="118" spans="1:14" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="50"/>
-      <c r="B118" s="50"/>
-      <c r="C118" s="50"/>
-      <c r="D118" s="50"/>
-      <c r="E118" s="50"/>
-      <c r="F118" s="50"/>
-      <c r="G118" s="50"/>
-      <c r="H118" s="50"/>
+      <c r="A118" s="52"/>
+      <c r="B118" s="52"/>
+      <c r="C118" s="52"/>
+      <c r="D118" s="52"/>
+      <c r="E118" s="52"/>
+      <c r="F118" s="52"/>
+      <c r="G118" s="52"/>
+      <c r="H118" s="52"/>
     </row>
     <row r="119" spans="1:14" s="23" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="50"/>
-      <c r="B119" s="50"/>
-      <c r="C119" s="50"/>
-      <c r="D119" s="50"/>
-      <c r="E119" s="50"/>
-      <c r="F119" s="50"/>
-      <c r="G119" s="50"/>
-      <c r="H119" s="50"/>
+      <c r="A119" s="52"/>
+      <c r="B119" s="52"/>
+      <c r="C119" s="52"/>
+      <c r="D119" s="52"/>
+      <c r="E119" s="52"/>
+      <c r="F119" s="52"/>
+      <c r="G119" s="52"/>
+      <c r="H119" s="52"/>
     </row>
     <row r="120" spans="1:14" s="23" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="50"/>
-      <c r="B120" s="50"/>
-      <c r="C120" s="50"/>
-      <c r="D120" s="50"/>
-      <c r="E120" s="50"/>
-      <c r="F120" s="50"/>
-      <c r="G120" s="50"/>
-      <c r="H120" s="50"/>
+      <c r="A120" s="52"/>
+      <c r="B120" s="52"/>
+      <c r="C120" s="52"/>
+      <c r="D120" s="52"/>
+      <c r="E120" s="52"/>
+      <c r="F120" s="52"/>
+      <c r="G120" s="52"/>
+      <c r="H120" s="52"/>
     </row>
     <row r="121" spans="1:14" s="27" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="51"/>
-      <c r="B121" s="51"/>
-      <c r="C121" s="51"/>
-      <c r="D121" s="51"/>
-      <c r="E121" s="51"/>
-      <c r="F121" s="51"/>
-      <c r="G121" s="51"/>
-      <c r="H121" s="51"/>
+      <c r="A121" s="53"/>
+      <c r="B121" s="53"/>
+      <c r="C121" s="53"/>
+      <c r="D121" s="53"/>
+      <c r="E121" s="53"/>
+      <c r="F121" s="53"/>
+      <c r="G121" s="53"/>
+      <c r="H121" s="53"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A122" s="50"/>
-      <c r="B122" s="50"/>
-      <c r="C122" s="50"/>
-      <c r="D122" s="50"/>
-      <c r="E122" s="50"/>
-      <c r="F122" s="50"/>
-      <c r="G122" s="50"/>
-      <c r="H122" s="50"/>
+      <c r="A122" s="52"/>
+      <c r="B122" s="52"/>
+      <c r="C122" s="52"/>
+      <c r="D122" s="52"/>
+      <c r="E122" s="52"/>
+      <c r="F122" s="52"/>
+      <c r="G122" s="52"/>
+      <c r="H122" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -3644,6 +3695,25 @@
     <mergeCell ref="A110:H110"/>
     <mergeCell ref="A111:H111"/>
   </mergeCells>
+  <conditionalFormatting sqref="A1:XFD18 A21:XFD1048576 A19:I20 L19:XFD20">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Q"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:K20">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="98" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3728,14 +3798,14 @@
     </row>
     <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -6042,150 +6112,150 @@
       </c>
     </row>
     <row r="105" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="49"/>
-      <c r="B105" s="49"/>
-      <c r="C105" s="49"/>
-      <c r="D105" s="49"/>
-      <c r="E105" s="49"/>
-      <c r="F105" s="49"/>
-      <c r="G105" s="49"/>
-      <c r="H105" s="49"/>
+      <c r="A105" s="51"/>
+      <c r="B105" s="51"/>
+      <c r="C105" s="51"/>
+      <c r="D105" s="51"/>
+      <c r="E105" s="51"/>
+      <c r="F105" s="51"/>
+      <c r="G105" s="51"/>
+      <c r="H105" s="51"/>
     </row>
     <row r="106" spans="1:14" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="47"/>
-      <c r="B106" s="47"/>
-      <c r="C106" s="47"/>
-      <c r="D106" s="47"/>
-      <c r="E106" s="47"/>
-      <c r="F106" s="47"/>
-      <c r="G106" s="47"/>
-      <c r="H106" s="47"/>
+      <c r="A106" s="49"/>
+      <c r="B106" s="49"/>
+      <c r="C106" s="49"/>
+      <c r="D106" s="49"/>
+      <c r="E106" s="49"/>
+      <c r="F106" s="49"/>
+      <c r="G106" s="49"/>
+      <c r="H106" s="49"/>
       <c r="K106" s="24"/>
       <c r="L106" s="24"/>
       <c r="M106" s="24"/>
       <c r="N106" s="24"/>
     </row>
     <row r="107" spans="1:14" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="47"/>
-      <c r="B107" s="47"/>
-      <c r="C107" s="47"/>
-      <c r="D107" s="47"/>
-      <c r="E107" s="47"/>
-      <c r="F107" s="47"/>
-      <c r="G107" s="47"/>
-      <c r="H107" s="47"/>
+      <c r="A107" s="49"/>
+      <c r="B107" s="49"/>
+      <c r="C107" s="49"/>
+      <c r="D107" s="49"/>
+      <c r="E107" s="49"/>
+      <c r="F107" s="49"/>
+      <c r="G107" s="49"/>
+      <c r="H107" s="49"/>
       <c r="K107" s="24"/>
       <c r="L107" s="24"/>
       <c r="M107" s="24"/>
       <c r="N107" s="24"/>
     </row>
     <row r="108" spans="1:14" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="47"/>
-      <c r="B108" s="47"/>
-      <c r="C108" s="47"/>
-      <c r="D108" s="47"/>
-      <c r="E108" s="47"/>
-      <c r="F108" s="47"/>
-      <c r="G108" s="47"/>
-      <c r="H108" s="47"/>
+      <c r="A108" s="49"/>
+      <c r="B108" s="49"/>
+      <c r="C108" s="49"/>
+      <c r="D108" s="49"/>
+      <c r="E108" s="49"/>
+      <c r="F108" s="49"/>
+      <c r="G108" s="49"/>
+      <c r="H108" s="49"/>
       <c r="K108" s="24"/>
       <c r="L108" s="24"/>
       <c r="M108" s="24"/>
       <c r="N108" s="24"/>
     </row>
     <row r="109" spans="1:14" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="47"/>
-      <c r="B109" s="47"/>
-      <c r="C109" s="47"/>
-      <c r="D109" s="47"/>
-      <c r="E109" s="47"/>
-      <c r="F109" s="47"/>
-      <c r="G109" s="47"/>
-      <c r="H109" s="47"/>
+      <c r="A109" s="49"/>
+      <c r="B109" s="49"/>
+      <c r="C109" s="49"/>
+      <c r="D109" s="49"/>
+      <c r="E109" s="49"/>
+      <c r="F109" s="49"/>
+      <c r="G109" s="49"/>
+      <c r="H109" s="49"/>
       <c r="K109" s="24"/>
       <c r="L109" s="24"/>
       <c r="M109" s="24"/>
       <c r="N109" s="24"/>
     </row>
     <row r="110" spans="1:14" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="47"/>
-      <c r="B110" s="47"/>
-      <c r="C110" s="47"/>
-      <c r="D110" s="47"/>
-      <c r="E110" s="47"/>
-      <c r="F110" s="47"/>
-      <c r="G110" s="47"/>
-      <c r="H110" s="47"/>
+      <c r="A110" s="49"/>
+      <c r="B110" s="49"/>
+      <c r="C110" s="49"/>
+      <c r="D110" s="49"/>
+      <c r="E110" s="49"/>
+      <c r="F110" s="49"/>
+      <c r="G110" s="49"/>
+      <c r="H110" s="49"/>
       <c r="K110" s="24"/>
       <c r="L110" s="24"/>
       <c r="M110" s="24"/>
       <c r="N110" s="24"/>
     </row>
     <row r="111" spans="1:14" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="47"/>
-      <c r="B111" s="47"/>
-      <c r="C111" s="47"/>
-      <c r="D111" s="47"/>
-      <c r="E111" s="47"/>
-      <c r="F111" s="47"/>
-      <c r="G111" s="47"/>
-      <c r="H111" s="47"/>
+      <c r="A111" s="49"/>
+      <c r="B111" s="49"/>
+      <c r="C111" s="49"/>
+      <c r="D111" s="49"/>
+      <c r="E111" s="49"/>
+      <c r="F111" s="49"/>
+      <c r="G111" s="49"/>
+      <c r="H111" s="49"/>
       <c r="K111" s="24"/>
       <c r="L111" s="24"/>
       <c r="M111" s="24"/>
       <c r="N111" s="24"/>
     </row>
     <row r="112" spans="1:14" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="47"/>
-      <c r="B112" s="47"/>
-      <c r="C112" s="47"/>
-      <c r="D112" s="47"/>
-      <c r="E112" s="47"/>
-      <c r="F112" s="47"/>
-      <c r="G112" s="47"/>
-      <c r="H112" s="47"/>
+      <c r="A112" s="49"/>
+      <c r="B112" s="49"/>
+      <c r="C112" s="49"/>
+      <c r="D112" s="49"/>
+      <c r="E112" s="49"/>
+      <c r="F112" s="49"/>
+      <c r="G112" s="49"/>
+      <c r="H112" s="49"/>
       <c r="K112" s="24"/>
       <c r="L112" s="24"/>
       <c r="M112" s="24"/>
       <c r="N112" s="24"/>
     </row>
     <row r="113" spans="1:14" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="47"/>
-      <c r="B113" s="47"/>
-      <c r="C113" s="47"/>
-      <c r="D113" s="47"/>
-      <c r="E113" s="47"/>
-      <c r="F113" s="47"/>
-      <c r="G113" s="47"/>
-      <c r="H113" s="47"/>
+      <c r="A113" s="49"/>
+      <c r="B113" s="49"/>
+      <c r="C113" s="49"/>
+      <c r="D113" s="49"/>
+      <c r="E113" s="49"/>
+      <c r="F113" s="49"/>
+      <c r="G113" s="49"/>
+      <c r="H113" s="49"/>
       <c r="K113" s="24"/>
       <c r="L113" s="24"/>
       <c r="M113" s="24"/>
       <c r="N113" s="24"/>
     </row>
     <row r="114" spans="1:14" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="47"/>
-      <c r="B114" s="47"/>
-      <c r="C114" s="47"/>
-      <c r="D114" s="47"/>
-      <c r="E114" s="47"/>
-      <c r="F114" s="47"/>
-      <c r="G114" s="47"/>
-      <c r="H114" s="47"/>
+      <c r="A114" s="49"/>
+      <c r="B114" s="49"/>
+      <c r="C114" s="49"/>
+      <c r="D114" s="49"/>
+      <c r="E114" s="49"/>
+      <c r="F114" s="49"/>
+      <c r="G114" s="49"/>
+      <c r="H114" s="49"/>
       <c r="K114" s="24"/>
       <c r="L114" s="24"/>
       <c r="M114" s="24"/>
       <c r="N114" s="24"/>
     </row>
     <row r="115" spans="1:14" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="52"/>
-      <c r="B115" s="52"/>
-      <c r="C115" s="52"/>
-      <c r="D115" s="52"/>
-      <c r="E115" s="52"/>
-      <c r="F115" s="52"/>
-      <c r="G115" s="52"/>
-      <c r="H115" s="52"/>
+      <c r="A115" s="54"/>
+      <c r="B115" s="54"/>
+      <c r="C115" s="54"/>
+      <c r="D115" s="54"/>
+      <c r="E115" s="54"/>
+      <c r="F115" s="54"/>
+      <c r="G115" s="54"/>
+      <c r="H115" s="54"/>
       <c r="I115" s="27"/>
       <c r="J115" s="27"/>
       <c r="K115" s="25"/>
@@ -6194,14 +6264,14 @@
       <c r="N115" s="25"/>
     </row>
     <row r="116" spans="1:14" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="52"/>
-      <c r="B116" s="52"/>
-      <c r="C116" s="52"/>
-      <c r="D116" s="52"/>
-      <c r="E116" s="52"/>
-      <c r="F116" s="52"/>
-      <c r="G116" s="52"/>
-      <c r="H116" s="52"/>
+      <c r="A116" s="54"/>
+      <c r="B116" s="54"/>
+      <c r="C116" s="54"/>
+      <c r="D116" s="54"/>
+      <c r="E116" s="54"/>
+      <c r="F116" s="54"/>
+      <c r="G116" s="54"/>
+      <c r="H116" s="54"/>
       <c r="I116" s="27"/>
       <c r="J116" s="27"/>
       <c r="K116" s="26"/>
@@ -6210,204 +6280,204 @@
       <c r="N116" s="26"/>
     </row>
     <row r="117" spans="1:14" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="50"/>
-      <c r="B117" s="50"/>
-      <c r="C117" s="50"/>
-      <c r="D117" s="50"/>
-      <c r="E117" s="50"/>
-      <c r="F117" s="50"/>
-      <c r="G117" s="50"/>
-      <c r="H117" s="50"/>
+      <c r="A117" s="52"/>
+      <c r="B117" s="52"/>
+      <c r="C117" s="52"/>
+      <c r="D117" s="52"/>
+      <c r="E117" s="52"/>
+      <c r="F117" s="52"/>
+      <c r="G117" s="52"/>
+      <c r="H117" s="52"/>
     </row>
     <row r="118" spans="1:14" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="50"/>
-      <c r="B118" s="50"/>
-      <c r="C118" s="50"/>
-      <c r="D118" s="50"/>
-      <c r="E118" s="50"/>
-      <c r="F118" s="50"/>
-      <c r="G118" s="50"/>
-      <c r="H118" s="50"/>
+      <c r="A118" s="52"/>
+      <c r="B118" s="52"/>
+      <c r="C118" s="52"/>
+      <c r="D118" s="52"/>
+      <c r="E118" s="52"/>
+      <c r="F118" s="52"/>
+      <c r="G118" s="52"/>
+      <c r="H118" s="52"/>
     </row>
     <row r="119" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="50"/>
-      <c r="B119" s="50"/>
-      <c r="C119" s="50"/>
-      <c r="D119" s="50"/>
-      <c r="E119" s="50"/>
-      <c r="F119" s="50"/>
-      <c r="G119" s="50"/>
-      <c r="H119" s="50"/>
+      <c r="A119" s="52"/>
+      <c r="B119" s="52"/>
+      <c r="C119" s="52"/>
+      <c r="D119" s="52"/>
+      <c r="E119" s="52"/>
+      <c r="F119" s="52"/>
+      <c r="G119" s="52"/>
+      <c r="H119" s="52"/>
     </row>
     <row r="120" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="50"/>
-      <c r="B120" s="50"/>
-      <c r="C120" s="50"/>
-      <c r="D120" s="50"/>
-      <c r="E120" s="50"/>
-      <c r="F120" s="50"/>
-      <c r="G120" s="50"/>
-      <c r="H120" s="50"/>
+      <c r="A120" s="52"/>
+      <c r="B120" s="52"/>
+      <c r="C120" s="52"/>
+      <c r="D120" s="52"/>
+      <c r="E120" s="52"/>
+      <c r="F120" s="52"/>
+      <c r="G120" s="52"/>
+      <c r="H120" s="52"/>
     </row>
     <row r="121" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="50"/>
-      <c r="B121" s="50"/>
-      <c r="C121" s="50"/>
-      <c r="D121" s="50"/>
-      <c r="E121" s="50"/>
-      <c r="F121" s="50"/>
-      <c r="G121" s="50"/>
-      <c r="H121" s="50"/>
+      <c r="A121" s="52"/>
+      <c r="B121" s="52"/>
+      <c r="C121" s="52"/>
+      <c r="D121" s="52"/>
+      <c r="E121" s="52"/>
+      <c r="F121" s="52"/>
+      <c r="G121" s="52"/>
+      <c r="H121" s="52"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A122" s="50"/>
-      <c r="B122" s="50"/>
-      <c r="C122" s="50"/>
-      <c r="D122" s="50"/>
-      <c r="E122" s="50"/>
-      <c r="F122" s="50"/>
-      <c r="G122" s="50"/>
-      <c r="H122" s="50"/>
+      <c r="A122" s="52"/>
+      <c r="B122" s="52"/>
+      <c r="C122" s="52"/>
+      <c r="D122" s="52"/>
+      <c r="E122" s="52"/>
+      <c r="F122" s="52"/>
+      <c r="G122" s="52"/>
+      <c r="H122" s="52"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A123" s="50"/>
-      <c r="B123" s="50"/>
-      <c r="C123" s="50"/>
-      <c r="D123" s="50"/>
-      <c r="E123" s="50"/>
-      <c r="F123" s="50"/>
-      <c r="G123" s="50"/>
-      <c r="H123" s="50"/>
+      <c r="A123" s="52"/>
+      <c r="B123" s="52"/>
+      <c r="C123" s="52"/>
+      <c r="D123" s="52"/>
+      <c r="E123" s="52"/>
+      <c r="F123" s="52"/>
+      <c r="G123" s="52"/>
+      <c r="H123" s="52"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A124" s="50"/>
-      <c r="B124" s="50"/>
-      <c r="C124" s="50"/>
-      <c r="D124" s="50"/>
-      <c r="E124" s="50"/>
-      <c r="F124" s="50"/>
-      <c r="G124" s="50"/>
-      <c r="H124" s="50"/>
+      <c r="A124" s="52"/>
+      <c r="B124" s="52"/>
+      <c r="C124" s="52"/>
+      <c r="D124" s="52"/>
+      <c r="E124" s="52"/>
+      <c r="F124" s="52"/>
+      <c r="G124" s="52"/>
+      <c r="H124" s="52"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="50"/>
-      <c r="B125" s="50"/>
-      <c r="C125" s="50"/>
-      <c r="D125" s="50"/>
-      <c r="E125" s="50"/>
-      <c r="F125" s="50"/>
-      <c r="G125" s="50"/>
-      <c r="H125" s="50"/>
+      <c r="A125" s="52"/>
+      <c r="B125" s="52"/>
+      <c r="C125" s="52"/>
+      <c r="D125" s="52"/>
+      <c r="E125" s="52"/>
+      <c r="F125" s="52"/>
+      <c r="G125" s="52"/>
+      <c r="H125" s="52"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="50"/>
-      <c r="B126" s="50"/>
-      <c r="C126" s="50"/>
-      <c r="D126" s="50"/>
-      <c r="E126" s="50"/>
-      <c r="F126" s="50"/>
-      <c r="G126" s="50"/>
-      <c r="H126" s="50"/>
+      <c r="A126" s="52"/>
+      <c r="B126" s="52"/>
+      <c r="C126" s="52"/>
+      <c r="D126" s="52"/>
+      <c r="E126" s="52"/>
+      <c r="F126" s="52"/>
+      <c r="G126" s="52"/>
+      <c r="H126" s="52"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="50"/>
-      <c r="B127" s="50"/>
-      <c r="C127" s="50"/>
-      <c r="D127" s="50"/>
-      <c r="E127" s="50"/>
-      <c r="F127" s="50"/>
-      <c r="G127" s="50"/>
-      <c r="H127" s="50"/>
+      <c r="A127" s="52"/>
+      <c r="B127" s="52"/>
+      <c r="C127" s="52"/>
+      <c r="D127" s="52"/>
+      <c r="E127" s="52"/>
+      <c r="F127" s="52"/>
+      <c r="G127" s="52"/>
+      <c r="H127" s="52"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A128" s="51"/>
-      <c r="B128" s="51"/>
-      <c r="C128" s="51"/>
-      <c r="D128" s="51"/>
-      <c r="E128" s="51"/>
-      <c r="F128" s="51"/>
-      <c r="G128" s="51"/>
-      <c r="H128" s="51"/>
+      <c r="A128" s="53"/>
+      <c r="B128" s="53"/>
+      <c r="C128" s="53"/>
+      <c r="D128" s="53"/>
+      <c r="E128" s="53"/>
+      <c r="F128" s="53"/>
+      <c r="G128" s="53"/>
+      <c r="H128" s="53"/>
     </row>
     <row r="129" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="51"/>
-      <c r="B129" s="51"/>
-      <c r="C129" s="51"/>
-      <c r="D129" s="51"/>
-      <c r="E129" s="51"/>
-      <c r="F129" s="51"/>
-      <c r="G129" s="51"/>
-      <c r="H129" s="51"/>
+      <c r="A129" s="53"/>
+      <c r="B129" s="53"/>
+      <c r="C129" s="53"/>
+      <c r="D129" s="53"/>
+      <c r="E129" s="53"/>
+      <c r="F129" s="53"/>
+      <c r="G129" s="53"/>
+      <c r="H129" s="53"/>
     </row>
     <row r="130" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="50"/>
-      <c r="B130" s="50"/>
-      <c r="C130" s="50"/>
-      <c r="D130" s="50"/>
-      <c r="E130" s="50"/>
-      <c r="F130" s="50"/>
-      <c r="G130" s="50"/>
-      <c r="H130" s="50"/>
+      <c r="A130" s="52"/>
+      <c r="B130" s="52"/>
+      <c r="C130" s="52"/>
+      <c r="D130" s="52"/>
+      <c r="E130" s="52"/>
+      <c r="F130" s="52"/>
+      <c r="G130" s="52"/>
+      <c r="H130" s="52"/>
     </row>
     <row r="131" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="50"/>
-      <c r="B131" s="50"/>
-      <c r="C131" s="50"/>
-      <c r="D131" s="50"/>
-      <c r="E131" s="50"/>
-      <c r="F131" s="50"/>
-      <c r="G131" s="50"/>
-      <c r="H131" s="50"/>
+      <c r="A131" s="52"/>
+      <c r="B131" s="52"/>
+      <c r="C131" s="52"/>
+      <c r="D131" s="52"/>
+      <c r="E131" s="52"/>
+      <c r="F131" s="52"/>
+      <c r="G131" s="52"/>
+      <c r="H131" s="52"/>
     </row>
     <row r="132" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="50"/>
-      <c r="B132" s="50"/>
-      <c r="C132" s="50"/>
-      <c r="D132" s="50"/>
-      <c r="E132" s="50"/>
-      <c r="F132" s="50"/>
-      <c r="G132" s="50"/>
-      <c r="H132" s="50"/>
+      <c r="A132" s="52"/>
+      <c r="B132" s="52"/>
+      <c r="C132" s="52"/>
+      <c r="D132" s="52"/>
+      <c r="E132" s="52"/>
+      <c r="F132" s="52"/>
+      <c r="G132" s="52"/>
+      <c r="H132" s="52"/>
     </row>
     <row r="133" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="50"/>
-      <c r="B133" s="50"/>
-      <c r="C133" s="50"/>
-      <c r="D133" s="50"/>
-      <c r="E133" s="50"/>
-      <c r="F133" s="50"/>
-      <c r="G133" s="50"/>
-      <c r="H133" s="50"/>
+      <c r="A133" s="52"/>
+      <c r="B133" s="52"/>
+      <c r="C133" s="52"/>
+      <c r="D133" s="52"/>
+      <c r="E133" s="52"/>
+      <c r="F133" s="52"/>
+      <c r="G133" s="52"/>
+      <c r="H133" s="52"/>
     </row>
     <row r="134" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="50"/>
-      <c r="B134" s="50"/>
-      <c r="C134" s="50"/>
-      <c r="D134" s="50"/>
-      <c r="E134" s="50"/>
-      <c r="F134" s="50"/>
-      <c r="G134" s="50"/>
-      <c r="H134" s="50"/>
+      <c r="A134" s="52"/>
+      <c r="B134" s="52"/>
+      <c r="C134" s="52"/>
+      <c r="D134" s="52"/>
+      <c r="E134" s="52"/>
+      <c r="F134" s="52"/>
+      <c r="G134" s="52"/>
+      <c r="H134" s="52"/>
     </row>
     <row r="135" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="51"/>
-      <c r="B135" s="51"/>
-      <c r="C135" s="51"/>
-      <c r="D135" s="51"/>
-      <c r="E135" s="51"/>
-      <c r="F135" s="51"/>
-      <c r="G135" s="51"/>
-      <c r="H135" s="51"/>
+      <c r="A135" s="53"/>
+      <c r="B135" s="53"/>
+      <c r="C135" s="53"/>
+      <c r="D135" s="53"/>
+      <c r="E135" s="53"/>
+      <c r="F135" s="53"/>
+      <c r="G135" s="53"/>
+      <c r="H135" s="53"/>
     </row>
     <row r="136" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="50"/>
-      <c r="B136" s="50"/>
-      <c r="C136" s="50"/>
-      <c r="D136" s="50"/>
-      <c r="E136" s="50"/>
-      <c r="F136" s="50"/>
-      <c r="G136" s="50"/>
-      <c r="H136" s="50"/>
+      <c r="A136" s="52"/>
+      <c r="B136" s="52"/>
+      <c r="C136" s="52"/>
+      <c r="D136" s="52"/>
+      <c r="E136" s="52"/>
+      <c r="F136" s="52"/>
+      <c r="G136" s="52"/>
+      <c r="H136" s="52"/>
     </row>
     <row r="137" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="23"/>
